--- a/src/test/java/com/inetbanking/testData/LoginData.xlsx
+++ b/src/test/java/com/inetbanking/testData/LoginData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4848F9C8-64FF-4866-BFFD-0CCB62FAA42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E5C9AE97-5258-47D0-BEB0-DA9982790692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -29,12 +29,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>mngr435686</t>
-  </si>
-  <si>
-    <t>vAjuvYn</t>
-  </si>
-  <si>
     <t>fdfdfdf4545</t>
   </si>
   <si>
@@ -45,6 +39,18 @@
   </si>
   <si>
     <t>dsdd454545</t>
+  </si>
+  <si>
+    <t>agUhasU</t>
+  </si>
+  <si>
+    <t>mngr441784</t>
+  </si>
+  <si>
+    <t>dshgdhs55</t>
+  </si>
+  <si>
+    <t>ssdsdsd</t>
   </si>
 </sst>
 </file>
@@ -362,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,26 +389,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
